--- a/biology/Botanique/Helminthotheca/Helminthotheca.xlsx
+++ b/biology/Botanique/Helminthotheca/Helminthotheca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helminthotheca est un genre de plantes à fleurs de la famille des Asteraceae, comprenant cinq espèces d'herbacées originaires d'Europe, d'Afrique du Nord et du Moyen-Orient, mais dont certaines ont été introduites en Amérique du Nord, en Afrique et en Australie.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (11 juin 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (11 juin 2021) :
 Helminthotheca aculeata (Vahl) Lack
 Helminthotheca balansae (Coss. &amp; Durieu) Lack
 Helminthotheca comosa (Boiss.) Holub
@@ -521,7 +535,7 @@
 Helminthotheca echioides Linnaeus, 1753
 Helminthotheca glomerata (Pomel) Greuter
 Helminthotheca spinosa (DC.) Talavera &amp; Tremetsberger
-Selon la WCVP[2] :
+Selon la WCVP :
 Helminthotheca aculeata (Vahl) Lack, nom correct
 Helminthotheca algarbiensis (Franco) Zidorn, synonyme de Helminthotheca comosa subsp. lusitanica (Welw. ex Schlecht.) P.Silva &amp; Escud
 Helminthotheca balansae (Coss. &amp; Durieu) Lack, nom correct
@@ -556,18 +570,20 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est décrit en 1756 par le botaniste allemand Johann Gottfried Zinn, qui le baptise Helminthotheca[3].
-Ce taxon porte en français le nom vernaculaire ou normalisé « Picride »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est décrit en 1756 par le botaniste allemand Johann Gottfried Zinn, qui le baptise Helminthotheca.
+Ce taxon porte en français le nom vernaculaire ou normalisé « Picride ».
 Les genres suivants sont synonymes de Helminthotheca :
-Crenamum Adans.[4]
-Helminthia DC.[4]
-Helminthia Juss., 1789[1]
-Helminthotheca Vaill., 1754[1]
-Hieraciastrum Heist. ex Fabr.[4]
-Vigineixia Pomel[4]
-Selon GRIN            (11 juin 2021)[5], Helminthotheca Zinn est possiblement synonyme de Picris L.
+Crenamum Adans.
+Helminthia DC.
+Helminthia Juss., 1789
+Helminthotheca Vaill., 1754
+Hieraciastrum Heist. ex Fabr.
+Vigineixia Pomel
+Selon GRIN            (11 juin 2021), Helminthotheca Zinn est possiblement synonyme de Picris L.
 </t>
         </is>
       </c>
